--- a/datos/femicidios_2017.xlsx
+++ b/datos/femicidios_2017.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF71"/>
+  <dimension ref="A1:AI71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -518,6 +518,21 @@
           <t>informacion_en_medios_2</t>
         </is>
       </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>informacion_en_medios_3</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>informe_del_poder_judicial</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>ulitma_fecha_de_modificacion</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -630,7 +645,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -1038,6 +1053,11 @@
           <t>Juzgado de Garantía de Melipilla</t>
         </is>
       </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>698-2017</t>
+        </is>
+      </c>
       <c r="AE5" t="inlineStr">
         <is>
           <t>https://www.noticiasfides.com/nacional/seguridad/la-primera-victima-de-feminicidio-en-chile-en-lo-que-va-del-ano-es-una-boliviana-374886</t>
@@ -1046,6 +1066,11 @@
       <c r="AF5" t="inlineStr">
         <is>
           <t>http://correodelsur.com/seguridad/20170128_feminicida-va-a-san-roque-dos-hijos-quedan-afectados.html</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>2024-05-28</t>
         </is>
       </c>
     </row>
@@ -1295,7 +1320,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1580,7 +1605,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1975,32 +2000,47 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>Homicidio simple</t>
+          <t>Lesiones graves</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Lesiones menos graves; amenazas no condicionales en contexto de violencia intrafamiliar</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2019-07-31</t>
+          <t>2021-08-12</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>Libre</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de La Serena</t>
+          <t>Tribunal de Juicio Oral en lo Penal de La Serena</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>707-2021</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>5 años de presidio</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>300 días de reclusión</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
@@ -2120,7 +2160,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>Homicidio simple</t>
+          <t>No penalizado</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
@@ -2130,22 +2170,17 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2019-03-19</t>
+          <t>2021-02-02</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>Juzgado de Garantía de San Felipe</t>
+          <t>Absuelto</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
@@ -2156,6 +2191,16 @@
       <c r="AF13" t="inlineStr">
         <is>
           <t>https://eluniversal.cl/noticia/642/cristian-munoz-asesino-de-susana-sanhueza-seguira-detenido</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>https://www.elandino.cl/queda-sin-culpable-la-muerte-de-joven-sanestebina-susana-sanhueza-aravena-ocurrida-el-2017-en-el-archivero-municipal-de-san-felipe/</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
         </is>
       </c>
     </row>
@@ -2275,7 +2320,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2430,7 +2475,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -3255,7 +3300,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -3405,7 +3450,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3680,27 +3725,37 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Abuso sexual a hija</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2017-04-17</t>
+          <t>2019-06-19</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de Tomé</t>
+          <t>Tribunal de Juicio Oral en lo Penal de Concepción</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>10 años</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>10 años</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
@@ -3711,6 +3766,16 @@
       <c r="AF24" t="inlineStr">
         <is>
           <t>https://www.biobiochile.cl/noticias/nacional/region-del-bio-bio/2017/04/18/en-prision-preventiva-quedo-hombre-acusado-de-matar-a-su-mujer-con-un-hacha-en-tome.shtml</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-del-bio-bio/2019/06/26/familia-de-victima-de-femicidio-cuestiona-condena-contra-esposo-sumo-anos-por-abusar-de-su-hija.shtml</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
         </is>
       </c>
     </row>
@@ -4210,22 +4275,27 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2019-03-06</t>
+          <t>2019-05-07</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Juzgado de Garantía de San Felipe</t>
+          <t>Tribunal de Juicio Oral en lo Penal de San Felipe</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>20 años</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
@@ -4236,6 +4306,16 @@
       <c r="AF28" t="inlineStr">
         <is>
           <t>http://www.eltrabajo.cl/2017/?p=85471</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>https://eltrabajo.cl/portal/tribunal-oral-declara-culpable-de-homicidio-calificado-a-sebastian-godoy-godoy/</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
         </is>
       </c>
     </row>
@@ -4355,12 +4435,12 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2019-08-05</t>
+          <t>2029-11-28</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -4370,7 +4450,17 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Juzgado de Letras y Garantía de Peralillo</t>
+          <t>Tribunal de Juicio Oral en lo Penal de Santa Cruz</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>66-2019</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>14 años de presidio efectivo</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
@@ -4381,6 +4471,16 @@
       <c r="AF29" t="inlineStr">
         <is>
           <t>https://www.eldesconcierto.cl/2018/05/11/el-silenciado-caso-de-magyory-ponce-una-historia-de-discriminacion-y-abusos-que-termino-en-femicidio/</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>https://horadenoticias.cl/policial/14-anos-de-presidio-a-autor-de-femicidio-en-paredones/</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
         </is>
       </c>
     </row>
@@ -4500,7 +4600,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -4645,7 +4745,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -5170,7 +5270,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -5315,7 +5415,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -5470,7 +5570,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -5620,7 +5720,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -5775,7 +5875,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -5920,7 +6020,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -6400,7 +6500,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -7090,7 +7190,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -7235,7 +7335,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -7385,7 +7485,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -7635,7 +7735,7 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
@@ -8035,7 +8135,7 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
@@ -8175,7 +8275,7 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
@@ -8330,7 +8430,7 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
@@ -8730,17 +8830,32 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>2017-10-30</t>
+          <t>2021-12-31</t>
         </is>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Privado de libertad</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>Tribunal de Juicio Oral en lo Penal de Puente Alto</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>124-2021</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo calificado</t>
         </is>
       </c>
       <c r="AE61" t="inlineStr">
@@ -8751,6 +8866,16 @@
       <c r="AF61" t="inlineStr">
         <is>
           <t>https://www.youtube.com/watch?v=HHc3mhvsO-I</t>
+        </is>
+      </c>
+      <c r="AG61" t="inlineStr">
+        <is>
+          <t>https://www.pjud.cl/prensa-y-comunicaciones/noticias-del-poder-judicial/67250</t>
+        </is>
+      </c>
+      <c r="AI61" t="inlineStr">
+        <is>
+          <t>2023-08-23</t>
         </is>
       </c>
     </row>
@@ -8855,22 +8980,27 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>En curso</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>2017-11-05</t>
+          <t>2022-06-15</t>
         </is>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>Prisión preventiva</t>
+          <t>Privado de libertad</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>7° Juzgado de Garantía de Santiago</t>
+          <t>4° Tribunal de Juicio Oral en lo Penal de Santiago</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>Presidio perpetuo calificado</t>
         </is>
       </c>
       <c r="AE62" t="inlineStr">
@@ -8881,6 +9011,11 @@
       <c r="AF62" t="inlineStr">
         <is>
           <t>http://www.emol.com/noticias/Nacional/2017/11/05/882029/Gobierno-condena-femicidio-de-venezolana-Haremos-todo-lo-posible-para-que-su-muerte-no-quede-impune.html</t>
+        </is>
+      </c>
+      <c r="AG62" t="inlineStr">
+        <is>
+          <t>https://www.pjud.cl/prensa-y-comunicaciones/noticias-del-poder-judicial/75020</t>
         </is>
       </c>
     </row>
@@ -9110,7 +9245,7 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
@@ -9245,7 +9380,7 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>Finalizada</t>
+          <t>Concluida</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
